--- a/showsxml.xlsx
+++ b/showsxml.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruijo\Desktop\TheaterServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C88A1D-48FB-4ECE-8B8A-263674B1CB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160F28E7-C502-418C-A450-89B36156492E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="2376" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Teatro de Fafe</t>
   </si>
@@ -65,13 +65,22 @@
   </si>
   <si>
     <t>Odeio a minha irmã</t>
+  </si>
+  <si>
+    <t>Sun Aug 8 12:30:00 2022</t>
+  </si>
+  <si>
+    <t>Sun Aug 8 12:30:00 2023</t>
+  </si>
+  <si>
+    <t>Sun Aug 8 12:30:00 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +219,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -916,14 +931,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="34.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -936,162 +952,200 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E1">
-        <v>80</v>
-      </c>
-      <c r="F1">
-        <v>30</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44659</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="C1">
         <v>3</v>
-      </c>
-      <c r="I1" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J1">
-        <v>80</v>
-      </c>
-      <c r="K1">
-        <v>26</v>
-      </c>
-      <c r="L1" s="2">
-        <v>44661</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="O1">
-        <v>80</v>
-      </c>
-      <c r="P1">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>44665</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.5625</v>
-      </c>
-      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
         <v>80</v>
       </c>
-      <c r="F2">
+      <c r="D2">
         <v>30</v>
       </c>
-      <c r="G2" s="2">
-        <v>44660</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J2">
-        <v>80</v>
-      </c>
-      <c r="K2">
-        <v>26</v>
-      </c>
-      <c r="L2" s="2">
-        <v>44662</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="O2">
-        <v>80</v>
-      </c>
-      <c r="P2">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>44666</v>
-      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="I2" s="1"/>
+      <c r="L2" s="2"/>
+      <c r="N2" s="1"/>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
         <v>80</v>
       </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2">
-        <v>44661</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="J3">
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="I3" s="1"/>
+      <c r="L3" s="2"/>
+      <c r="N3" s="1"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
         <v>80</v>
       </c>
-      <c r="K3">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2">
-        <v>44663</v>
-      </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="O3">
-        <v>80</v>
-      </c>
-      <c r="P3">
+      <c r="D4">
         <v>50</v>
       </c>
-      <c r="Q3" s="2">
-        <v>44667</v>
+      <c r="E4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="I4" s="1"/>
+      <c r="L4" s="2"/>
+      <c r="N4" s="1"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="Q6" s="3"/>
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="L6" s="2"/>
+      <c r="N6" s="1"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="L7" s="2"/>
+      <c r="N7" s="1"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="N8" s="1"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="Q12" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
